--- a/Projects/Budget/C. Finaceiro 2.0.xlsx
+++ b/Projects/Budget/C. Finaceiro 2.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcssi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F69FEFC-5C1A-4C9B-A7C7-557BEE7E2C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E89BE2F-619E-4163-9705-7255C719FD0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-114" yWindow="-114" windowWidth="19704" windowHeight="11178" tabRatio="792" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="71">
   <si>
     <t>Mês</t>
   </si>
@@ -180,9 +180,6 @@
     <t>Resultado - Total</t>
   </si>
   <si>
-    <t>Dízimo</t>
-  </si>
-  <si>
     <t>Incom.</t>
   </si>
   <si>
@@ -253,6 +250,12 @@
   </si>
   <si>
     <t>INSS</t>
+  </si>
+  <si>
+    <t>Invest1</t>
+  </si>
+  <si>
+    <t>Invest2</t>
   </si>
 </sst>
 </file>
@@ -972,6 +975,12 @@
     <xf numFmtId="44" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1001,12 +1010,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3002,10 +3005,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -3354,10 +3353,10 @@
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="111" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="34">
         <v>0</v>
@@ -3496,7 +3495,7 @@
     </row>
     <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="112" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="B10" s="112"/>
       <c r="C10" s="50">
@@ -3550,7 +3549,7 @@
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="112" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="B11" s="112"/>
       <c r="C11" s="50">
@@ -3607,10 +3606,10 @@
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="114" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" s="34"/>
       <c r="D13" s="34"/>
@@ -3820,58 +3819,58 @@
       <c r="A2" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121" t="s">
+      <c r="C2" s="123"/>
+      <c r="D2" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121" t="s">
+      <c r="E2" s="123"/>
+      <c r="F2" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121" t="s">
+      <c r="G2" s="123"/>
+      <c r="H2" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121" t="s">
+      <c r="I2" s="123"/>
+      <c r="J2" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121" t="s">
+      <c r="K2" s="123"/>
+      <c r="L2" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121" t="s">
+      <c r="M2" s="123"/>
+      <c r="N2" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="121"/>
-      <c r="P2" s="121" t="s">
+      <c r="O2" s="123"/>
+      <c r="P2" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="121"/>
-      <c r="R2" s="121" t="s">
+      <c r="Q2" s="123"/>
+      <c r="R2" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="121"/>
-      <c r="T2" s="121" t="s">
+      <c r="S2" s="123"/>
+      <c r="T2" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="U2" s="121"/>
-      <c r="V2" s="121" t="s">
+      <c r="U2" s="123"/>
+      <c r="V2" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="W2" s="121"/>
-      <c r="X2" s="121" t="s">
+      <c r="W2" s="123"/>
+      <c r="X2" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="Y2" s="122"/>
+      <c r="Y2" s="124"/>
     </row>
     <row r="3" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="123" t="s">
-        <v>47</v>
+      <c r="A3" s="125" t="s">
+        <v>46</v>
       </c>
       <c r="B3" s="92" t="s">
         <v>30</v>
@@ -3959,7 +3958,7 @@
       </c>
     </row>
     <row r="4" spans="1:25" ht="15.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="124"/>
+      <c r="A4" s="126"/>
       <c r="B4" s="16" t="s">
         <v>16</v>
       </c>
@@ -4073,84 +4072,84 @@
       <c r="Y5" s="7"/>
     </row>
     <row r="6" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="115" t="s">
+      <c r="A6" s="117" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="62" t="s">
         <v>28</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="63" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6" s="62" t="s">
         <v>28</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H6" s="63" t="s">
         <v>28</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J6" s="62" t="s">
         <v>28</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L6" s="63" t="s">
         <v>28</v>
       </c>
       <c r="M6" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N6" s="62" t="s">
         <v>28</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P6" s="63" t="s">
         <v>28</v>
       </c>
       <c r="Q6" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R6" s="62" t="s">
         <v>28</v>
       </c>
       <c r="S6" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T6" s="63" t="s">
         <v>28</v>
       </c>
       <c r="U6" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V6" s="62" t="s">
         <v>28</v>
       </c>
       <c r="W6" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X6" s="63" t="s">
         <v>28</v>
       </c>
       <c r="Y6" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="116"/>
+      <c r="A7" s="118"/>
       <c r="B7" s="3" t="s">
         <v>40</v>
       </c>
@@ -4236,7 +4235,7 @@
       </c>
     </row>
     <row r="8" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="116"/>
+      <c r="A8" s="118"/>
       <c r="B8" s="3" t="s">
         <v>38</v>
       </c>
@@ -4322,7 +4321,7 @@
       </c>
     </row>
     <row r="9" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="116"/>
+      <c r="A9" s="118"/>
       <c r="B9" s="5" t="s">
         <v>39</v>
       </c>
@@ -4408,7 +4407,7 @@
       </c>
     </row>
     <row r="10" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="116"/>
+      <c r="A10" s="118"/>
       <c r="B10" s="5" t="s">
         <v>37</v>
       </c>
@@ -4494,7 +4493,7 @@
       </c>
     </row>
     <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="116"/>
+      <c r="A11" s="118"/>
       <c r="B11" s="5" t="s">
         <v>36</v>
       </c>
@@ -4580,7 +4579,7 @@
       </c>
     </row>
     <row r="12" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="116"/>
+      <c r="A12" s="118"/>
       <c r="B12" s="5" t="s">
         <v>41</v>
       </c>
@@ -4666,7 +4665,7 @@
       </c>
     </row>
     <row r="13" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="116"/>
+      <c r="A13" s="118"/>
       <c r="B13" s="6" t="s">
         <v>26</v>
       </c>
@@ -4752,7 +4751,7 @@
       </c>
     </row>
     <row r="14" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="117"/>
+      <c r="A14" s="119"/>
       <c r="B14" s="11" t="s">
         <v>24</v>
       </c>
@@ -4838,7 +4837,7 @@
       </c>
     </row>
     <row r="15" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="118" t="s">
+      <c r="A15" s="120" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="13"/>
@@ -4867,7 +4866,7 @@
       <c r="Y15" s="21"/>
     </row>
     <row r="16" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="119"/>
+      <c r="A16" s="121"/>
       <c r="B16" s="3"/>
       <c r="C16" s="9"/>
       <c r="D16" s="53"/>
@@ -4894,7 +4893,7 @@
       <c r="Y16" s="22"/>
     </row>
     <row r="17" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="119"/>
+      <c r="A17" s="121"/>
       <c r="B17" s="3"/>
       <c r="C17" s="9"/>
       <c r="D17" s="53"/>
@@ -4921,7 +4920,7 @@
       <c r="Y17" s="22"/>
     </row>
     <row r="18" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="119"/>
+      <c r="A18" s="121"/>
       <c r="B18" s="3"/>
       <c r="C18" s="9"/>
       <c r="D18" s="53"/>
@@ -4948,7 +4947,7 @@
       <c r="Y18" s="22"/>
     </row>
     <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="119"/>
+      <c r="A19" s="121"/>
       <c r="B19" s="3"/>
       <c r="C19" s="9"/>
       <c r="D19" s="53"/>
@@ -4975,7 +4974,7 @@
       <c r="Y19" s="22"/>
     </row>
     <row r="20" spans="1:25" ht="15.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="120"/>
+      <c r="A20" s="122"/>
       <c r="B20" s="14"/>
       <c r="C20" s="60"/>
       <c r="D20" s="55"/>
@@ -5005,66 +5004,66 @@
       <c r="A21" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="125">
+      <c r="B21" s="115">
         <f>SUM(C7:C20)</f>
         <v>0</v>
       </c>
-      <c r="C21" s="126"/>
-      <c r="D21" s="125">
+      <c r="C21" s="116"/>
+      <c r="D21" s="115">
         <f>SUM(E7:E20)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="126"/>
-      <c r="F21" s="125">
+      <c r="E21" s="116"/>
+      <c r="F21" s="115">
         <f>SUM(G7:G20)</f>
         <v>0</v>
       </c>
-      <c r="G21" s="126"/>
-      <c r="H21" s="125">
+      <c r="G21" s="116"/>
+      <c r="H21" s="115">
         <f>SUM(I7:I20)</f>
         <v>0</v>
       </c>
-      <c r="I21" s="126"/>
-      <c r="J21" s="125">
+      <c r="I21" s="116"/>
+      <c r="J21" s="115">
         <f>SUM(K7:K20)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="126"/>
-      <c r="L21" s="125">
+      <c r="K21" s="116"/>
+      <c r="L21" s="115">
         <f>SUM(M7:M20)</f>
         <v>0</v>
       </c>
-      <c r="M21" s="126"/>
-      <c r="N21" s="125">
+      <c r="M21" s="116"/>
+      <c r="N21" s="115">
         <f>SUM(O7:O20)</f>
         <v>0</v>
       </c>
-      <c r="O21" s="126"/>
-      <c r="P21" s="125">
+      <c r="O21" s="116"/>
+      <c r="P21" s="115">
         <f>SUM(Q7:Q20)</f>
         <v>0</v>
       </c>
-      <c r="Q21" s="126"/>
-      <c r="R21" s="125">
+      <c r="Q21" s="116"/>
+      <c r="R21" s="115">
         <f>SUM(S7:S20)</f>
         <v>0</v>
       </c>
-      <c r="S21" s="126"/>
-      <c r="T21" s="125">
+      <c r="S21" s="116"/>
+      <c r="T21" s="115">
         <f>SUM(U7:U20)</f>
         <v>0</v>
       </c>
-      <c r="U21" s="126"/>
-      <c r="V21" s="125">
+      <c r="U21" s="116"/>
+      <c r="V21" s="115">
         <f>SUM(W7:W20)</f>
         <v>0</v>
       </c>
-      <c r="W21" s="126"/>
-      <c r="X21" s="125">
+      <c r="W21" s="116"/>
+      <c r="X21" s="115">
         <f>SUM(Y7:Y20)</f>
         <v>0</v>
       </c>
-      <c r="Y21" s="126"/>
+      <c r="Y21" s="116"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C13:C17">
@@ -5079,18 +5078,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="27">
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
     <mergeCell ref="A6:A14"/>
     <mergeCell ref="A15:A20"/>
     <mergeCell ref="T2:U2"/>
@@ -5106,6 +5093,18 @@
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="T21:U21"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:XFD4">
     <cfRule type="iconSet" priority="13">
@@ -5182,7 +5181,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="70" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="69"/>
       <c r="C3" s="79">
@@ -5208,7 +5207,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="102" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L3" s="103">
         <v>0</v>
@@ -5216,7 +5215,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="70" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="69"/>
       <c r="C4" s="79">
@@ -5242,7 +5241,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="102" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L4" s="103">
         <v>0</v>
@@ -5250,7 +5249,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="70" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="69"/>
       <c r="C5" s="79">
@@ -5276,7 +5275,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="102" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L5" s="103">
         <v>0</v>
@@ -5284,7 +5283,7 @@
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="70" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" s="69"/>
       <c r="C6" s="79">
@@ -5319,7 +5318,7 @@
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="70" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" s="69"/>
       <c r="C7" s="79">
@@ -5345,7 +5344,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="104" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L7" s="110">
         <f ca="1">ROUND(L6-(VLOOKUP(L2,A3:I14,9,FALSE)),2)</f>
@@ -5354,7 +5353,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="70" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="69"/>
       <c r="C8" s="79">
@@ -5382,7 +5381,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="70" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" s="69"/>
       <c r="C9" s="79">
@@ -5410,7 +5409,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="70" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" s="69"/>
       <c r="C10" s="79">
@@ -5438,7 +5437,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="70" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" s="69"/>
       <c r="C11" s="79">
@@ -5466,7 +5465,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="70" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="69"/>
       <c r="C12" s="79">
@@ -5494,7 +5493,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="70" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13" s="69"/>
       <c r="C13" s="79">
@@ -5522,7 +5521,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="70" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" s="69"/>
       <c r="C14" s="79">
@@ -5599,7 +5598,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="70" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="69"/>
       <c r="C17" s="79">
@@ -5620,7 +5619,7 @@
     </row>
     <row r="18" spans="1:12" ht="15.7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="69"/>
       <c r="C18" s="83">

--- a/Projects/Budget/C. Finaceiro 2.0.xlsx
+++ b/Projects/Budget/C. Finaceiro 2.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcssi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E89BE2F-619E-4163-9705-7255C719FD0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCB9ADD-B588-4DC0-B7A0-1DFD61243120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-114" yWindow="-114" windowWidth="19704" windowHeight="11178" tabRatio="792" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
